--- a/database/impor-siswa-2.xlsx
+++ b/database/impor-siswa-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\banksampah_sekolah\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE224AC-7391-49B6-9C46-1935D17752D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0C723-13E0-4AA0-8B83-96FE16FD4FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
   <si>
     <t>nama_lengkap</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>YUDI ADITIA</t>
+  </si>
+  <si>
+    <t>DEFNE MAULLANA EL SYARIF</t>
   </si>
 </sst>
 </file>
@@ -582,14 +585,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -613,7 +617,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>252610200</v>
@@ -630,7 +634,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>252610201</v>
@@ -647,7 +651,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>252610202</v>
@@ -664,7 +668,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>252610203</v>
@@ -681,7 +685,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>252610204</v>
@@ -698,7 +702,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>252610205</v>
@@ -715,7 +719,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>252610206</v>
@@ -732,7 +736,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>252610207</v>
@@ -749,7 +753,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>252610208</v>
@@ -766,7 +770,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>252610209</v>
@@ -783,7 +787,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>252610210</v>
@@ -800,7 +804,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>252610211</v>
@@ -817,7 +821,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>252610212</v>
@@ -834,7 +838,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>252610213</v>
@@ -851,7 +855,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>252610214</v>
@@ -868,7 +872,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>252610215</v>
@@ -885,7 +889,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>252610216</v>
@@ -902,7 +906,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>252610217</v>
@@ -919,7 +923,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>252610218</v>
@@ -936,7 +940,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
         <v>252610219</v>
@@ -953,7 +957,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
         <v>252610220</v>
@@ -970,7 +974,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>252610221</v>
@@ -987,7 +991,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
         <v>252610222</v>
@@ -1004,7 +1008,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
         <v>252610223</v>
@@ -1021,7 +1025,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
         <v>252610224</v>
@@ -1038,7 +1042,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>252610225</v>
@@ -1055,7 +1059,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>252610226</v>
@@ -1072,7 +1076,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29">
         <v>252610227</v>
@@ -1089,7 +1093,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30">
         <v>252610228</v>
@@ -1101,12 +1105,12 @@
         <v>252610228</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31">
         <v>252610229</v>
@@ -1123,7 +1127,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>252610230</v>
@@ -1140,7 +1144,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
         <v>252610231</v>
@@ -1157,7 +1161,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
         <v>252610232</v>
@@ -1174,7 +1178,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>252610233</v>
@@ -1191,7 +1195,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>252610234</v>
@@ -1208,7 +1212,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>252610235</v>
@@ -1225,7 +1229,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>252610236</v>
@@ -1242,7 +1246,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39">
         <v>252610237</v>
@@ -1259,7 +1263,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40">
         <v>252610238</v>
@@ -1276,7 +1280,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41">
         <v>252610239</v>
@@ -1293,7 +1297,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>252610240</v>
@@ -1310,7 +1314,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43">
         <v>252610241</v>
@@ -1327,7 +1331,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44">
         <v>252610242</v>
@@ -1344,7 +1348,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>252610243</v>
@@ -1361,7 +1365,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46">
         <v>252610244</v>
@@ -1378,7 +1382,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47">
         <v>252610245</v>
@@ -1395,7 +1399,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48">
         <v>252610246</v>
@@ -1412,7 +1416,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>252610247</v>
@@ -1429,7 +1433,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50">
         <v>252610248</v>
@@ -1446,7 +1450,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>252610249</v>
@@ -1463,7 +1467,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>252610250</v>
@@ -1480,7 +1484,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>252610251</v>
@@ -1497,7 +1501,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54">
         <v>252610252</v>
@@ -1514,7 +1518,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55">
         <v>252610253</v>
@@ -1531,7 +1535,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>252610254</v>
@@ -1548,7 +1552,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>252610255</v>
@@ -1565,7 +1569,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58">
         <v>252610256</v>
@@ -1582,7 +1586,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59">
         <v>252610257</v>
@@ -1599,7 +1603,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60">
         <v>252610258</v>
@@ -1616,7 +1620,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61">
         <v>252610259</v>
@@ -1633,7 +1637,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>252610260</v>
@@ -1650,7 +1654,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B63">
         <v>252610261</v>
@@ -1667,7 +1671,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B64">
         <v>252610262</v>
@@ -1679,6 +1683,23 @@
         <v>252610262</v>
       </c>
       <c r="E64" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65">
+        <v>252610263</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>252610263</v>
+      </c>
+      <c r="E65" t="s">
         <v>35</v>
       </c>
     </row>
